--- a/CSV/refinedkeywords_metaclasses_ready.xlsx
+++ b/CSV/refinedkeywords_metaclasses_ready.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA62F80-01D7-44BA-AA13-1551D43F415E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297825B7-0739-41CA-B58C-695F0BBA5AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="865">
   <si>
     <t>Keyword</t>
   </si>
@@ -2617,6 +2617,9 @@
   </si>
   <si>
     <t>psychology and sociology</t>
+  </si>
+  <si>
+    <t>Data set</t>
   </si>
 </sst>
 </file>
@@ -2883,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867F4740-3741-4244-AD95-EAB09C234922}">
-  <dimension ref="A1:B855"/>
+  <dimension ref="A1:B856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
-      <selection activeCell="B515" sqref="B515"/>
+    <sheetView tabSelected="1" topLeftCell="A825" workbookViewId="0">
+      <selection activeCell="B857" sqref="B857"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9012,7 +9015,7 @@
         <v>780</v>
       </c>
       <c r="B765" t="s">
-        <v>862</v>
+        <v>415</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
@@ -9020,7 +9023,7 @@
         <v>649</v>
       </c>
       <c r="B766" t="s">
-        <v>862</v>
+        <v>415</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
@@ -9028,7 +9031,7 @@
         <v>847</v>
       </c>
       <c r="B767" t="s">
-        <v>862</v>
+        <v>415</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
@@ -9036,7 +9039,7 @@
         <v>301</v>
       </c>
       <c r="B768" t="s">
-        <v>862</v>
+        <v>415</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
@@ -9044,7 +9047,7 @@
         <v>415</v>
       </c>
       <c r="B769" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
@@ -9733,6 +9736,14 @@
       </c>
       <c r="B855" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B856" t="s">
+        <v>856</v>
       </c>
     </row>
   </sheetData>

--- a/CSV/refinedkeywords_metaclasses_ready.xlsx
+++ b/CSV/refinedkeywords_metaclasses_ready.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297825B7-0739-41CA-B58C-695F0BBA5AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A6D81C-A801-4818-B064-1C78ED9AA7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="864">
   <si>
     <t>Keyword</t>
   </si>
@@ -2617,9 +2617,6 @@
   </si>
   <si>
     <t>psychology and sociology</t>
-  </si>
-  <si>
-    <t>Data set</t>
   </si>
 </sst>
 </file>
@@ -2889,7 +2886,7 @@
   <dimension ref="A1:B856"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A825" workbookViewId="0">
-      <selection activeCell="B857" sqref="B857"/>
+      <selection activeCell="A856" sqref="A856:XFD856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9739,12 +9736,7 @@
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A856" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B856" t="s">
-        <v>856</v>
-      </c>
+      <c r="A856" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B856">
